--- a/4月报表/搬仓汇总报表.xlsx
+++ b/4月报表/搬仓汇总报表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{65EED924-378C-48F7-AEDA-32607F29FD3E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,15 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$173</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="255">
   <si>
     <t>发车日期</t>
   </si>
@@ -687,17 +684,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>武汉亚一3CA数码通讯仓2号库</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>19173</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>分拣摆渡</t>
-  </si>
-  <si>
     <t>17665</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -783,19 +773,95 @@
   </si>
   <si>
     <t>17667</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一3CA数码通讯仓1号库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17632</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17640</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17639</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17641</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17638</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17637</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17636</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17642</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11667</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11666</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17649</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17647</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17646</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17648</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17650</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17645</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17644</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17643</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="00&quot;：&quot;00"/>
     <numFmt numFmtId="177" formatCode="&quot;WW00&quot;@"/>
     <numFmt numFmtId="178" formatCode="&quot;鄂A&quot;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -859,6 +925,21 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -935,7 +1016,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,8 +1080,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,48 +1271,64 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="24">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 2 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="常规 3 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="常规 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="常规 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="常规 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="常规 5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="常规 7" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="常规 8" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="常规 8 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="常规 8 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="常规 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="常规 9 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 2" xfId="4"/>
+    <cellStyle name="常规 2 2" xfId="2"/>
+    <cellStyle name="常规 2 2 2" xfId="21"/>
+    <cellStyle name="常规 2 3" xfId="8"/>
+    <cellStyle name="常规 2 3 2" xfId="16"/>
+    <cellStyle name="常规 2 4" xfId="12"/>
+    <cellStyle name="常规 3" xfId="5"/>
+    <cellStyle name="常规 3 2" xfId="9"/>
+    <cellStyle name="常规 3 2 2" xfId="17"/>
+    <cellStyle name="常规 3 3" xfId="13"/>
+    <cellStyle name="常规 4" xfId="6"/>
+    <cellStyle name="常规 4 2" xfId="14"/>
+    <cellStyle name="常规 5" xfId="7"/>
+    <cellStyle name="常规 5 2" xfId="15"/>
+    <cellStyle name="常规 6" xfId="3"/>
+    <cellStyle name="常规 7" xfId="10"/>
+    <cellStyle name="常规 7 2" xfId="22"/>
+    <cellStyle name="常规 8" xfId="11"/>
+    <cellStyle name="常规 8 2" xfId="20"/>
+    <cellStyle name="常规 8 3" xfId="19"/>
+    <cellStyle name="常规 9" xfId="1"/>
+    <cellStyle name="常规 9 2" xfId="18"/>
+    <cellStyle name="常规 9 2 2" xfId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-2"/>
@@ -1492,7 +1598,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1534,7 +1640,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1566,27 +1672,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1618,24 +1706,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1811,14 +1881,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BH176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="C162" workbookViewId="0">
+      <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="2" bestFit="1" customWidth="1"/>
@@ -1839,7 +1909,7 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:60" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1937,7 +2007,7 @@
       <c r="BG1" s="9"/>
       <c r="BH1" s="9"/>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:60">
       <c r="A2" s="10">
         <v>43179</v>
       </c>
@@ -2031,7 +2101,7 @@
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:60">
       <c r="A3" s="10">
         <v>43179</v>
       </c>
@@ -2125,7 +2195,7 @@
       <c r="BG3" s="1"/>
       <c r="BH3" s="1"/>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:60">
       <c r="A4" s="10">
         <v>43180</v>
       </c>
@@ -2219,7 +2289,7 @@
       <c r="BG4" s="1"/>
       <c r="BH4" s="1"/>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:60">
       <c r="A5" s="10">
         <v>43180</v>
       </c>
@@ -2313,7 +2383,7 @@
       <c r="BG5" s="1"/>
       <c r="BH5" s="1"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:60">
       <c r="A6" s="10">
         <v>43180</v>
       </c>
@@ -2407,7 +2477,7 @@
       <c r="BG6" s="1"/>
       <c r="BH6" s="1"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:60">
       <c r="A7" s="10">
         <v>43180</v>
       </c>
@@ -2501,7 +2571,7 @@
       <c r="BG7" s="1"/>
       <c r="BH7" s="1"/>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:60">
       <c r="A8" s="10">
         <v>43180</v>
       </c>
@@ -2595,7 +2665,7 @@
       <c r="BG8" s="1"/>
       <c r="BH8" s="1"/>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:60">
       <c r="A9" s="10">
         <v>43180</v>
       </c>
@@ -2689,7 +2759,7 @@
       <c r="BG9" s="1"/>
       <c r="BH9" s="1"/>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:60">
       <c r="A10" s="10">
         <v>43180</v>
       </c>
@@ -2783,7 +2853,7 @@
       <c r="BG10" s="1"/>
       <c r="BH10" s="1"/>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:60">
       <c r="A11" s="10">
         <v>43180</v>
       </c>
@@ -2877,7 +2947,7 @@
       <c r="BG11" s="1"/>
       <c r="BH11" s="1"/>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:60">
       <c r="A12" s="10">
         <v>43180</v>
       </c>
@@ -2971,7 +3041,7 @@
       <c r="BG12" s="1"/>
       <c r="BH12" s="1"/>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:60">
       <c r="A13" s="10">
         <v>43180</v>
       </c>
@@ -3065,7 +3135,7 @@
       <c r="BG13" s="1"/>
       <c r="BH13" s="1"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:60">
       <c r="A14" s="20">
         <v>43180</v>
       </c>
@@ -3163,7 +3233,7 @@
       <c r="BG14" s="30"/>
       <c r="BH14" s="30"/>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:60">
       <c r="A15" s="20">
         <v>43180</v>
       </c>
@@ -3261,7 +3331,7 @@
       <c r="BG15" s="30"/>
       <c r="BH15" s="30"/>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:60">
       <c r="A16" s="20">
         <v>43180</v>
       </c>
@@ -3359,7 +3429,7 @@
       <c r="BG16" s="30"/>
       <c r="BH16" s="30"/>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:60">
       <c r="A17" s="20">
         <v>43180</v>
       </c>
@@ -3457,7 +3527,7 @@
       <c r="BG17" s="30"/>
       <c r="BH17" s="30"/>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:60">
       <c r="A18" s="20">
         <v>43180</v>
       </c>
@@ -3555,7 +3625,7 @@
       <c r="BG18" s="30"/>
       <c r="BH18" s="30"/>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:60">
       <c r="A19" s="20">
         <v>43180</v>
       </c>
@@ -3653,7 +3723,7 @@
       <c r="BG19" s="30"/>
       <c r="BH19" s="30"/>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:60">
       <c r="A20" s="20">
         <v>43180</v>
       </c>
@@ -3751,7 +3821,7 @@
       <c r="BG20" s="30"/>
       <c r="BH20" s="30"/>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:60">
       <c r="A21" s="20">
         <v>43180</v>
       </c>
@@ -3849,7 +3919,7 @@
       <c r="BG21" s="37"/>
       <c r="BH21" s="37"/>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:60">
       <c r="A22" s="20">
         <v>43181</v>
       </c>
@@ -3947,7 +4017,7 @@
       <c r="BG22" s="30"/>
       <c r="BH22" s="30"/>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:60">
       <c r="A23" s="20">
         <v>43181</v>
       </c>
@@ -4045,7 +4115,7 @@
       <c r="BG23" s="30"/>
       <c r="BH23" s="30"/>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:60">
       <c r="A24" s="10">
         <v>43186</v>
       </c>
@@ -4139,7 +4209,7 @@
       <c r="BG24" s="43"/>
       <c r="BH24" s="43"/>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:60">
       <c r="A25" s="10">
         <v>43186</v>
       </c>
@@ -4233,7 +4303,7 @@
       <c r="BG25" s="43"/>
       <c r="BH25" s="43"/>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:60">
       <c r="A26" s="10">
         <v>43186</v>
       </c>
@@ -4327,7 +4397,7 @@
       <c r="BG26" s="43"/>
       <c r="BH26" s="43"/>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:60">
       <c r="A27" s="10">
         <v>43186</v>
       </c>
@@ -4421,7 +4491,7 @@
       <c r="BG27" s="43"/>
       <c r="BH27" s="43"/>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:60">
       <c r="A28" s="10">
         <v>43186</v>
       </c>
@@ -4515,7 +4585,7 @@
       <c r="BG28" s="43"/>
       <c r="BH28" s="43"/>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:60">
       <c r="A29" s="10">
         <v>43186</v>
       </c>
@@ -4609,7 +4679,7 @@
       <c r="BG29" s="43"/>
       <c r="BH29" s="43"/>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:60">
       <c r="A30" s="10">
         <v>43186</v>
       </c>
@@ -4703,7 +4773,7 @@
       <c r="BG30" s="43"/>
       <c r="BH30" s="43"/>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:60">
       <c r="A31" s="10">
         <v>43186</v>
       </c>
@@ -4797,7 +4867,7 @@
       <c r="BG31" s="43"/>
       <c r="BH31" s="43"/>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:60">
       <c r="A32" s="10">
         <v>43186</v>
       </c>
@@ -4891,7 +4961,7 @@
       <c r="BG32" s="43"/>
       <c r="BH32" s="43"/>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:60">
       <c r="A33" s="10">
         <v>43186</v>
       </c>
@@ -4985,7 +5055,7 @@
       <c r="BG33" s="43"/>
       <c r="BH33" s="43"/>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:60">
       <c r="A34" s="10">
         <v>43186</v>
       </c>
@@ -5079,7 +5149,7 @@
       <c r="BG34" s="43"/>
       <c r="BH34" s="43"/>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:60">
       <c r="A35" s="10">
         <v>43186</v>
       </c>
@@ -5173,7 +5243,7 @@
       <c r="BG35" s="43"/>
       <c r="BH35" s="43"/>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:60">
       <c r="A36" s="10">
         <v>43186</v>
       </c>
@@ -5267,7 +5337,7 @@
       <c r="BG36" s="43"/>
       <c r="BH36" s="43"/>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:60">
       <c r="A37" s="10">
         <v>43186</v>
       </c>
@@ -5361,7 +5431,7 @@
       <c r="BG37" s="43"/>
       <c r="BH37" s="43"/>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:60">
       <c r="A38" s="10">
         <v>43186</v>
       </c>
@@ -5455,7 +5525,7 @@
       <c r="BG38" s="43"/>
       <c r="BH38" s="43"/>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:60">
       <c r="A39" s="10">
         <v>43186</v>
       </c>
@@ -5549,7 +5619,7 @@
       <c r="BG39" s="43"/>
       <c r="BH39" s="43"/>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:60">
       <c r="A40" s="10">
         <v>43186</v>
       </c>
@@ -5643,7 +5713,7 @@
       <c r="BG40" s="43"/>
       <c r="BH40" s="43"/>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:60">
       <c r="A41" s="10">
         <v>43186</v>
       </c>
@@ -5737,7 +5807,7 @@
       <c r="BG41" s="43"/>
       <c r="BH41" s="43"/>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:60">
       <c r="A42" s="10">
         <v>43186</v>
       </c>
@@ -5831,7 +5901,7 @@
       <c r="BG42" s="43"/>
       <c r="BH42" s="43"/>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:60">
       <c r="A43" s="10">
         <v>43186</v>
       </c>
@@ -5925,7 +5995,7 @@
       <c r="BG43" s="43"/>
       <c r="BH43" s="43"/>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:60">
       <c r="A44" s="10">
         <v>43186</v>
       </c>
@@ -6019,7 +6089,7 @@
       <c r="BG44" s="43"/>
       <c r="BH44" s="43"/>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:60">
       <c r="A45" s="10">
         <v>43186</v>
       </c>
@@ -6113,7 +6183,7 @@
       <c r="BG45" s="43"/>
       <c r="BH45" s="43"/>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:60">
       <c r="A46" s="10">
         <v>43186</v>
       </c>
@@ -6207,7 +6277,7 @@
       <c r="BG46" s="43"/>
       <c r="BH46" s="43"/>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:60">
       <c r="A47" s="10">
         <v>43186</v>
       </c>
@@ -6301,7 +6371,7 @@
       <c r="BG47" s="43"/>
       <c r="BH47" s="43"/>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:60">
       <c r="A48" s="10">
         <v>43186</v>
       </c>
@@ -6395,7 +6465,7 @@
       <c r="BG48" s="43"/>
       <c r="BH48" s="43"/>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:60">
       <c r="A49" s="10">
         <v>43186</v>
       </c>
@@ -6489,7 +6559,7 @@
       <c r="BG49" s="43"/>
       <c r="BH49" s="43"/>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:60">
       <c r="A50" s="10">
         <v>43186</v>
       </c>
@@ -6583,7 +6653,7 @@
       <c r="BG50" s="43"/>
       <c r="BH50" s="43"/>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:60">
       <c r="A51" s="10">
         <v>43186</v>
       </c>
@@ -6677,7 +6747,7 @@
       <c r="BG51" s="43"/>
       <c r="BH51" s="43"/>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:60">
       <c r="A52" s="10">
         <v>43186</v>
       </c>
@@ -6771,7 +6841,7 @@
       <c r="BG52" s="43"/>
       <c r="BH52" s="43"/>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:60">
       <c r="A53" s="10">
         <v>43186</v>
       </c>
@@ -6865,7 +6935,7 @@
       <c r="BG53" s="43"/>
       <c r="BH53" s="43"/>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:60">
       <c r="A54" s="10">
         <v>43186</v>
       </c>
@@ -6959,7 +7029,7 @@
       <c r="BG54" s="43"/>
       <c r="BH54" s="43"/>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:60">
       <c r="A55" s="10">
         <v>43187</v>
       </c>
@@ -7053,7 +7123,7 @@
       <c r="BG55" s="43"/>
       <c r="BH55" s="43"/>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:60">
       <c r="A56" s="10">
         <v>43187</v>
       </c>
@@ -7147,7 +7217,7 @@
       <c r="BG56" s="43"/>
       <c r="BH56" s="43"/>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:60">
       <c r="A57" s="10">
         <v>43187</v>
       </c>
@@ -7241,7 +7311,7 @@
       <c r="BG57" s="43"/>
       <c r="BH57" s="43"/>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:60">
       <c r="A58" s="10">
         <v>43187</v>
       </c>
@@ -7335,7 +7405,7 @@
       <c r="BG58" s="43"/>
       <c r="BH58" s="43"/>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:60">
       <c r="A59" s="10">
         <v>43187</v>
       </c>
@@ -7429,7 +7499,7 @@
       <c r="BG59" s="43"/>
       <c r="BH59" s="43"/>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:60">
       <c r="A60" s="10">
         <v>43187</v>
       </c>
@@ -7523,7 +7593,7 @@
       <c r="BG60" s="43"/>
       <c r="BH60" s="43"/>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:60">
       <c r="A61" s="10">
         <v>43187</v>
       </c>
@@ -7617,7 +7687,7 @@
       <c r="BG61" s="43"/>
       <c r="BH61" s="43"/>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:60">
       <c r="A62" s="10">
         <v>43187</v>
       </c>
@@ -7711,7 +7781,7 @@
       <c r="BG62" s="43"/>
       <c r="BH62" s="43"/>
     </row>
-    <row r="63" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:60">
       <c r="A63" s="10">
         <v>43187</v>
       </c>
@@ -7805,7 +7875,7 @@
       <c r="BG63" s="43"/>
       <c r="BH63" s="43"/>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:60">
       <c r="A64" s="10">
         <v>43187</v>
       </c>
@@ -7899,7 +7969,7 @@
       <c r="BG64" s="43"/>
       <c r="BH64" s="43"/>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:60">
       <c r="A65" s="10">
         <v>43187</v>
       </c>
@@ -7993,7 +8063,7 @@
       <c r="BG65" s="43"/>
       <c r="BH65" s="43"/>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:60">
       <c r="A66" s="10">
         <v>43187</v>
       </c>
@@ -8087,7 +8157,7 @@
       <c r="BG66" s="43"/>
       <c r="BH66" s="43"/>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:60">
       <c r="A67" s="10">
         <v>43187</v>
       </c>
@@ -8181,7 +8251,7 @@
       <c r="BG67" s="43"/>
       <c r="BH67" s="43"/>
     </row>
-    <row r="68" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:60">
       <c r="A68" s="10">
         <v>43187</v>
       </c>
@@ -8275,7 +8345,7 @@
       <c r="BG68" s="43"/>
       <c r="BH68" s="43"/>
     </row>
-    <row r="69" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:60">
       <c r="A69" s="10">
         <v>43187</v>
       </c>
@@ -8369,7 +8439,7 @@
       <c r="BG69" s="43"/>
       <c r="BH69" s="43"/>
     </row>
-    <row r="70" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:60">
       <c r="A70" s="10">
         <v>43187</v>
       </c>
@@ -8463,7 +8533,7 @@
       <c r="BG70" s="43"/>
       <c r="BH70" s="43"/>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:60">
       <c r="A71" s="10">
         <v>43188</v>
       </c>
@@ -8557,7 +8627,7 @@
       <c r="BG71" s="43"/>
       <c r="BH71" s="43"/>
     </row>
-    <row r="72" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:60">
       <c r="A72" s="10">
         <v>43188</v>
       </c>
@@ -8651,7 +8721,7 @@
       <c r="BG72" s="43"/>
       <c r="BH72" s="43"/>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:60">
       <c r="A73" s="10">
         <v>43188</v>
       </c>
@@ -8745,7 +8815,7 @@
       <c r="BG73" s="43"/>
       <c r="BH73" s="43"/>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:60">
       <c r="A74" s="10">
         <v>43188</v>
       </c>
@@ -8839,7 +8909,7 @@
       <c r="BG74" s="43"/>
       <c r="BH74" s="43"/>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:60">
       <c r="A75" s="10">
         <v>43188</v>
       </c>
@@ -8933,7 +9003,7 @@
       <c r="BG75" s="43"/>
       <c r="BH75" s="43"/>
     </row>
-    <row r="76" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:60">
       <c r="A76" s="10">
         <v>43188</v>
       </c>
@@ -9027,7 +9097,7 @@
       <c r="BG76" s="43"/>
       <c r="BH76" s="43"/>
     </row>
-    <row r="77" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:60">
       <c r="A77" s="10">
         <v>43188</v>
       </c>
@@ -9121,7 +9191,7 @@
       <c r="BG77" s="43"/>
       <c r="BH77" s="43"/>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:60">
       <c r="A78" s="10">
         <v>43188</v>
       </c>
@@ -9215,7 +9285,7 @@
       <c r="BG78" s="43"/>
       <c r="BH78" s="43"/>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:60">
       <c r="A79" s="10">
         <v>43188</v>
       </c>
@@ -9309,7 +9379,7 @@
       <c r="BG79" s="43"/>
       <c r="BH79" s="43"/>
     </row>
-    <row r="80" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:60">
       <c r="A80" s="10">
         <v>43188</v>
       </c>
@@ -9403,7 +9473,7 @@
       <c r="BG80" s="43"/>
       <c r="BH80" s="43"/>
     </row>
-    <row r="81" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:60">
       <c r="A81" s="10">
         <v>43188</v>
       </c>
@@ -9497,7 +9567,7 @@
       <c r="BG81" s="43"/>
       <c r="BH81" s="43"/>
     </row>
-    <row r="82" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:60">
       <c r="A82" s="10">
         <v>43188</v>
       </c>
@@ -9591,7 +9661,7 @@
       <c r="BG82" s="43"/>
       <c r="BH82" s="43"/>
     </row>
-    <row r="83" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:60">
       <c r="A83" s="10">
         <v>43188</v>
       </c>
@@ -9685,7 +9755,7 @@
       <c r="BG83" s="43"/>
       <c r="BH83" s="43"/>
     </row>
-    <row r="84" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:60">
       <c r="A84" s="10">
         <v>43188</v>
       </c>
@@ -9779,7 +9849,7 @@
       <c r="BG84" s="43"/>
       <c r="BH84" s="43"/>
     </row>
-    <row r="85" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:60">
       <c r="A85" s="10">
         <v>43188</v>
       </c>
@@ -9873,7 +9943,7 @@
       <c r="BG85" s="43"/>
       <c r="BH85" s="43"/>
     </row>
-    <row r="86" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:60">
       <c r="A86" s="10">
         <v>43188</v>
       </c>
@@ -9967,7 +10037,7 @@
       <c r="BG86" s="43"/>
       <c r="BH86" s="43"/>
     </row>
-    <row r="87" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:60">
       <c r="A87" s="44">
         <v>43192</v>
       </c>
@@ -10021,7 +10091,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="88" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:60">
       <c r="A88" s="44">
         <v>43192</v>
       </c>
@@ -10035,7 +10105,7 @@
         <v>840</v>
       </c>
       <c r="E88" s="47" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="F88" s="47" t="s">
         <v>147</v>
@@ -10075,7 +10145,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:60">
       <c r="A89" s="44">
         <v>43192</v>
       </c>
@@ -10089,7 +10159,7 @@
         <v>758</v>
       </c>
       <c r="E89" s="47" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="F89" s="47" t="s">
         <v>147</v>
@@ -10129,7 +10199,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:60">
       <c r="A90" s="44">
         <v>43192</v>
       </c>
@@ -10143,7 +10213,7 @@
         <v>720</v>
       </c>
       <c r="E90" s="47" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="F90" s="47" t="s">
         <v>147</v>
@@ -10183,7 +10253,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:60">
       <c r="A91" s="44">
         <v>43192</v>
       </c>
@@ -10197,7 +10267,7 @@
         <v>635</v>
       </c>
       <c r="E91" s="47" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="F91" s="47" t="s">
         <v>147</v>
@@ -10237,7 +10307,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:60">
       <c r="A92" s="44">
         <v>43192</v>
       </c>
@@ -10251,7 +10321,7 @@
         <v>555</v>
       </c>
       <c r="E92" s="47" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="F92" s="47" t="s">
         <v>147</v>
@@ -10291,7 +10361,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="93" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:60">
       <c r="A93" s="44">
         <v>43192</v>
       </c>
@@ -10305,7 +10375,7 @@
         <v>507</v>
       </c>
       <c r="E93" s="47" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="F93" s="47" t="s">
         <v>147</v>
@@ -10345,7 +10415,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="94" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:60">
       <c r="A94" s="44">
         <v>43192</v>
       </c>
@@ -10359,7 +10429,7 @@
         <v>425</v>
       </c>
       <c r="E94" s="47" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="F94" s="47" t="s">
         <v>147</v>
@@ -10399,7 +10469,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="95" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:60">
       <c r="A95" s="44">
         <v>43192</v>
       </c>
@@ -10413,7 +10483,7 @@
         <v>346</v>
       </c>
       <c r="E95" s="47" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="F95" s="47" t="s">
         <v>147</v>
@@ -10453,7 +10523,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:60">
       <c r="A96" s="44">
         <v>43192</v>
       </c>
@@ -10467,7 +10537,7 @@
         <v>300</v>
       </c>
       <c r="E96" s="47" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="F96" s="47" t="s">
         <v>147</v>
@@ -10507,7 +10577,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="97" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:60">
       <c r="A97" s="44">
         <v>43192</v>
       </c>
@@ -10521,7 +10591,7 @@
         <v>212</v>
       </c>
       <c r="E97" s="47" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="F97" s="47" t="s">
         <v>147</v>
@@ -10561,7 +10631,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:60">
       <c r="A98" s="44">
         <v>43192</v>
       </c>
@@ -10575,7 +10645,7 @@
         <v>124</v>
       </c>
       <c r="E98" s="47" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="F98" s="47" t="s">
         <v>147</v>
@@ -10615,7 +10685,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:60">
       <c r="A99" s="44">
         <v>43192</v>
       </c>
@@ -10669,7 +10739,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="100" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:60">
       <c r="A100" s="44">
         <v>43192</v>
       </c>
@@ -10723,7 +10793,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:60">
       <c r="A101" s="44">
         <v>43192</v>
       </c>
@@ -10777,7 +10847,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:60">
       <c r="A102" s="44">
         <v>43192</v>
       </c>
@@ -10872,7 +10942,7 @@
       <c r="BF102" s="43"/>
       <c r="BG102" s="43"/>
     </row>
-    <row r="103" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:60">
       <c r="A103" s="44">
         <v>43192</v>
       </c>
@@ -10967,7 +11037,7 @@
       <c r="BF103" s="43"/>
       <c r="BG103" s="43"/>
     </row>
-    <row r="104" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:60">
       <c r="A104" s="44">
         <v>43192</v>
       </c>
@@ -11062,7 +11132,7 @@
       <c r="BF104" s="43"/>
       <c r="BG104" s="43"/>
     </row>
-    <row r="105" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:60">
       <c r="A105" s="44">
         <v>43192</v>
       </c>
@@ -11157,7 +11227,7 @@
       <c r="BF105" s="43"/>
       <c r="BG105" s="43"/>
     </row>
-    <row r="106" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:60">
       <c r="A106" s="44">
         <v>43192</v>
       </c>
@@ -11252,7 +11322,7 @@
       <c r="BF106" s="43"/>
       <c r="BG106" s="43"/>
     </row>
-    <row r="107" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:60">
       <c r="A107" s="44">
         <v>43192</v>
       </c>
@@ -11347,7 +11417,7 @@
       <c r="BF107" s="43"/>
       <c r="BG107" s="43"/>
     </row>
-    <row r="108" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:60">
       <c r="A108" s="44">
         <v>43192</v>
       </c>
@@ -11442,7 +11512,7 @@
       <c r="BF108" s="43"/>
       <c r="BG108" s="43"/>
     </row>
-    <row r="109" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:60">
       <c r="A109" s="44">
         <v>43192</v>
       </c>
@@ -11537,7 +11607,7 @@
       <c r="BF109" s="43"/>
       <c r="BG109" s="43"/>
     </row>
-    <row r="110" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:60">
       <c r="A110" s="44">
         <v>43192</v>
       </c>
@@ -11632,7 +11702,7 @@
       <c r="BF110" s="43"/>
       <c r="BG110" s="43"/>
     </row>
-    <row r="111" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:60">
       <c r="A111" s="44">
         <v>43193</v>
       </c>
@@ -11728,7 +11798,7 @@
       <c r="BG111" s="57"/>
       <c r="BH111" s="57"/>
     </row>
-    <row r="112" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:60">
       <c r="A112" s="44">
         <v>43193</v>
       </c>
@@ -11824,7 +11894,7 @@
       <c r="BG112" s="57"/>
       <c r="BH112" s="57"/>
     </row>
-    <row r="113" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:60">
       <c r="A113" s="44">
         <v>43193</v>
       </c>
@@ -11920,7 +11990,7 @@
       <c r="BG113" s="57"/>
       <c r="BH113" s="57"/>
     </row>
-    <row r="114" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:60">
       <c r="A114" s="44">
         <v>43193</v>
       </c>
@@ -12016,7 +12086,7 @@
       <c r="BG114" s="57"/>
       <c r="BH114" s="57"/>
     </row>
-    <row r="115" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:60">
       <c r="A115" s="44">
         <v>43193</v>
       </c>
@@ -12112,7 +12182,7 @@
       <c r="BG115" s="57"/>
       <c r="BH115" s="57"/>
     </row>
-    <row r="116" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:60">
       <c r="A116" s="44">
         <v>43193</v>
       </c>
@@ -12208,7 +12278,7 @@
       <c r="BG116" s="57"/>
       <c r="BH116" s="57"/>
     </row>
-    <row r="117" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:60">
       <c r="A117" s="44">
         <v>43193</v>
       </c>
@@ -12304,7 +12374,7 @@
       <c r="BG117" s="57"/>
       <c r="BH117" s="57"/>
     </row>
-    <row r="118" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:60">
       <c r="A118" s="44">
         <v>43193</v>
       </c>
@@ -12400,7 +12470,7 @@
       <c r="BG118" s="57"/>
       <c r="BH118" s="57"/>
     </row>
-    <row r="119" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:60">
       <c r="A119" s="44">
         <v>43193</v>
       </c>
@@ -12496,7 +12566,7 @@
       <c r="BG119" s="57"/>
       <c r="BH119" s="57"/>
     </row>
-    <row r="120" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:60">
       <c r="A120" s="44">
         <v>43193</v>
       </c>
@@ -12592,7 +12662,7 @@
       <c r="BG120" s="57"/>
       <c r="BH120" s="57"/>
     </row>
-    <row r="121" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:60">
       <c r="A121" s="44">
         <v>43193</v>
       </c>
@@ -12688,7 +12758,7 @@
       <c r="BG121" s="57"/>
       <c r="BH121" s="57"/>
     </row>
-    <row r="122" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:60">
       <c r="A122" s="44">
         <v>43193</v>
       </c>
@@ -12784,7 +12854,7 @@
       <c r="BG122" s="57"/>
       <c r="BH122" s="57"/>
     </row>
-    <row r="123" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:60">
       <c r="A123" s="44">
         <v>43193</v>
       </c>
@@ -12880,7 +12950,7 @@
       <c r="BG123" s="57"/>
       <c r="BH123" s="57"/>
     </row>
-    <row r="124" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:60">
       <c r="A124" s="44">
         <v>43193</v>
       </c>
@@ -12976,7 +13046,7 @@
       <c r="BG124" s="57"/>
       <c r="BH124" s="57"/>
     </row>
-    <row r="125" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:60">
       <c r="A125" s="44">
         <v>43193</v>
       </c>
@@ -13072,7 +13142,7 @@
       <c r="BG125" s="57"/>
       <c r="BH125" s="57"/>
     </row>
-    <row r="126" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:60">
       <c r="A126" s="44">
         <v>43193</v>
       </c>
@@ -13126,10 +13196,7 @@
       <c r="R126" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="S126" s="43">
-        <f>SUM(O126:Q126)</f>
-        <v>14</v>
-      </c>
+      <c r="S126" s="43"/>
       <c r="T126" s="43"/>
       <c r="U126" s="43"/>
       <c r="V126" s="43"/>
@@ -13172,7 +13239,7 @@
       <c r="BG126" s="43"/>
       <c r="BH126" s="43"/>
     </row>
-    <row r="127" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:60">
       <c r="A127" s="44">
         <v>43193</v>
       </c>
@@ -13269,7 +13336,7 @@
       <c r="BG127" s="43"/>
       <c r="BH127" s="43"/>
     </row>
-    <row r="128" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:60">
       <c r="A128" s="44">
         <v>43193</v>
       </c>
@@ -13320,7 +13387,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="R128" s="17"/>
+      <c r="R128" s="17" t="s">
+        <v>198</v>
+      </c>
       <c r="S128" s="43"/>
       <c r="T128" s="43"/>
       <c r="U128" s="43"/>
@@ -13364,7 +13433,7 @@
       <c r="BG128" s="43"/>
       <c r="BH128" s="43"/>
     </row>
-    <row r="129" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:60">
       <c r="A129" s="44">
         <v>43193</v>
       </c>
@@ -13415,7 +13484,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="R129" s="17"/>
+      <c r="R129" s="17" t="s">
+        <v>198</v>
+      </c>
       <c r="S129" s="43"/>
       <c r="T129" s="43"/>
       <c r="U129" s="43"/>
@@ -13459,7 +13530,7 @@
       <c r="BG129" s="43"/>
       <c r="BH129" s="43"/>
     </row>
-    <row r="130" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:60">
       <c r="A130" s="44">
         <v>43193</v>
       </c>
@@ -13510,7 +13581,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="R130" s="17"/>
+      <c r="R130" s="17" t="s">
+        <v>198</v>
+      </c>
       <c r="S130" s="43"/>
       <c r="T130" s="43"/>
       <c r="U130" s="43"/>
@@ -13554,7 +13627,7 @@
       <c r="BG130" s="43"/>
       <c r="BH130" s="43"/>
     </row>
-    <row r="131" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:60">
       <c r="A131" s="44">
         <v>43193</v>
       </c>
@@ -13605,7 +13678,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="R131" s="17"/>
+      <c r="R131" s="17" t="s">
+        <v>198</v>
+      </c>
       <c r="S131" s="43"/>
       <c r="T131" s="43"/>
       <c r="U131" s="43"/>
@@ -13649,7 +13724,7 @@
       <c r="BG131" s="43"/>
       <c r="BH131" s="43"/>
     </row>
-    <row r="132" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:60">
       <c r="A132" s="44">
         <v>43193</v>
       </c>
@@ -13700,7 +13775,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="R132" s="17"/>
+      <c r="R132" s="17" t="s">
+        <v>198</v>
+      </c>
       <c r="S132" s="43"/>
       <c r="T132" s="43"/>
       <c r="U132" s="43"/>
@@ -13744,7 +13821,7 @@
       <c r="BG132" s="43"/>
       <c r="BH132" s="43"/>
     </row>
-    <row r="133" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:60">
       <c r="A133" s="44">
         <v>43193</v>
       </c>
@@ -13795,7 +13872,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="R133" s="17"/>
+      <c r="R133" s="17" t="s">
+        <v>198</v>
+      </c>
       <c r="S133" s="43"/>
       <c r="T133" s="43"/>
       <c r="U133" s="43"/>
@@ -13839,7 +13918,7 @@
       <c r="BG133" s="43"/>
       <c r="BH133" s="43"/>
     </row>
-    <row r="134" spans="1:60" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:60" s="57" customFormat="1">
       <c r="A134" s="44">
         <v>43194</v>
       </c>
@@ -13862,43 +13941,42 @@
         <v>212</v>
       </c>
       <c r="H134" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I134" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="I134" s="54" t="s">
-        <v>214</v>
-      </c>
       <c r="J134" s="54"/>
-      <c r="K134" s="60"/>
-      <c r="L134" s="49" t="str">
-        <f t="shared" ref="L134:L155" si="1">IF(A134&lt;&gt;"","武汉威伟机械","-----")</f>
+      <c r="K134" s="49" t="str">
+        <f t="shared" ref="K134:K155" si="1">IF(A134&lt;&gt;"","武汉威伟机械","-----")</f>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M134" s="55" t="str">
-        <f>VLOOKUP(N134,[1]ch!A:B,2,FALSE)</f>
+      <c r="L134" s="55" t="str">
+        <f>VLOOKUP(M134,[1]ch!A:B,2,FALSE)</f>
         <v>鄂AZV373</v>
       </c>
-      <c r="N134" s="56" t="s">
+      <c r="M134" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="O134" s="49" t="str">
-        <f t="shared" ref="O134:O155" si="2">IF(A134&lt;&gt;"","9.6米","---")</f>
+      <c r="N134" s="49" t="str">
+        <f t="shared" ref="N134:N155" si="2">IF(A134&lt;&gt;"","9.6米","---")</f>
         <v>9.6米</v>
       </c>
+      <c r="O134" s="49">
+        <v>14</v>
+      </c>
       <c r="P134" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q134" s="49">
-        <v>0</v>
-      </c>
-      <c r="R134" s="49">
-        <f t="shared" ref="R134:R155" si="3">SUM(P134:Q134)</f>
-        <v>14</v>
-      </c>
-      <c r="S134" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="135" spans="1:60" s="57" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="Q134:Q155" si="3">SUM(O134:P134)</f>
+        <v>14</v>
+      </c>
+      <c r="R134" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135" spans="1:60" s="57" customFormat="1">
       <c r="A135" s="44">
         <v>43194</v>
       </c>
@@ -13921,43 +13999,42 @@
         <v>212</v>
       </c>
       <c r="H135" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I135" s="54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J135" s="54"/>
-      <c r="K135" s="60"/>
-      <c r="L135" s="49" t="str">
+      <c r="K135" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M135" s="55" t="str">
-        <f>VLOOKUP(N135,[1]ch!A:B,2,FALSE)</f>
+      <c r="L135" s="55" t="str">
+        <f>VLOOKUP(M135,[1]ch!A:B,2,FALSE)</f>
         <v>鄂AZV373</v>
       </c>
-      <c r="N135" s="56" t="s">
+      <c r="M135" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="O135" s="49" t="str">
+      <c r="N135" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O135" s="49">
+        <v>14</v>
+      </c>
       <c r="P135" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q135" s="49">
-        <v>0</v>
-      </c>
-      <c r="R135" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S135" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="136" spans="1:60" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R135" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:60" s="57" customFormat="1">
       <c r="A136" s="44">
         <v>43194</v>
       </c>
@@ -13980,43 +14057,42 @@
         <v>212</v>
       </c>
       <c r="H136" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I136" s="54" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J136" s="54"/>
-      <c r="K136" s="60"/>
-      <c r="L136" s="49" t="str">
+      <c r="K136" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M136" s="55" t="str">
-        <f>VLOOKUP(N136,[1]ch!A:B,2,FALSE)</f>
+      <c r="L136" s="55" t="str">
+        <f>VLOOKUP(M136,[1]ch!A:B,2,FALSE)</f>
         <v>鄂AZV373</v>
       </c>
-      <c r="N136" s="56" t="s">
+      <c r="M136" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="O136" s="49" t="str">
+      <c r="N136" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O136" s="49">
+        <v>14</v>
+      </c>
       <c r="P136" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q136" s="49">
-        <v>0</v>
-      </c>
-      <c r="R136" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S136" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="137" spans="1:60" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R136" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="1:60" s="57" customFormat="1">
       <c r="A137" s="44">
         <v>43194</v>
       </c>
@@ -14039,43 +14115,42 @@
         <v>212</v>
       </c>
       <c r="H137" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I137" s="54" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J137" s="54"/>
-      <c r="K137" s="60"/>
-      <c r="L137" s="49" t="str">
+      <c r="K137" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M137" s="55" t="str">
-        <f>VLOOKUP(N137,[1]ch!A:B,2,FALSE)</f>
+      <c r="L137" s="55" t="str">
+        <f>VLOOKUP(M137,[1]ch!A:B,2,FALSE)</f>
         <v>鄂AZV373</v>
       </c>
-      <c r="N137" s="56" t="s">
+      <c r="M137" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="O137" s="49" t="str">
+      <c r="N137" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O137" s="49">
+        <v>14</v>
+      </c>
       <c r="P137" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q137" s="49">
-        <v>0</v>
-      </c>
-      <c r="R137" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S137" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="138" spans="1:60" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R137" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="138" spans="1:60" s="57" customFormat="1">
       <c r="A138" s="44">
         <v>43194</v>
       </c>
@@ -14098,43 +14173,42 @@
         <v>212</v>
       </c>
       <c r="H138" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I138" s="54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J138" s="54"/>
-      <c r="K138" s="60"/>
-      <c r="L138" s="49" t="str">
+      <c r="K138" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M138" s="55" t="str">
-        <f>VLOOKUP(N138,[1]ch!A:B,2,FALSE)</f>
+      <c r="L138" s="55" t="str">
+        <f>VLOOKUP(M138,[1]ch!A:B,2,FALSE)</f>
         <v>鄂AZV373</v>
       </c>
-      <c r="N138" s="56" t="s">
+      <c r="M138" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="O138" s="49" t="str">
+      <c r="N138" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O138" s="49">
+        <v>14</v>
+      </c>
       <c r="P138" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q138" s="49">
-        <v>0</v>
-      </c>
-      <c r="R138" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S138" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="139" spans="1:60" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R138" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:60" s="57" customFormat="1">
       <c r="A139" s="44">
         <v>43194</v>
       </c>
@@ -14157,43 +14231,42 @@
         <v>212</v>
       </c>
       <c r="H139" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I139" s="54" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J139" s="54"/>
-      <c r="K139" s="60"/>
-      <c r="L139" s="49" t="str">
+      <c r="K139" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M139" s="55" t="str">
-        <f>VLOOKUP(N139,[1]ch!A:B,2,FALSE)</f>
+      <c r="L139" s="55" t="str">
+        <f>VLOOKUP(M139,[1]ch!A:B,2,FALSE)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="N139" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="O139" s="49" t="str">
+      <c r="M139" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="N139" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O139" s="49">
+        <v>14</v>
+      </c>
       <c r="P139" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q139" s="49">
-        <v>0</v>
-      </c>
-      <c r="R139" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S139" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="140" spans="1:60" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R139" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="140" spans="1:60" s="57" customFormat="1">
       <c r="A140" s="44">
         <v>43194</v>
       </c>
@@ -14216,43 +14289,42 @@
         <v>212</v>
       </c>
       <c r="H140" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I140" s="54" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J140" s="54"/>
-      <c r="K140" s="60"/>
-      <c r="L140" s="49" t="str">
+      <c r="K140" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M140" s="55" t="str">
-        <f>VLOOKUP(N140,[1]ch!A:B,2,FALSE)</f>
+      <c r="L140" s="55" t="str">
+        <f>VLOOKUP(M140,[1]ch!A:B,2,FALSE)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="N140" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="O140" s="49" t="str">
+      <c r="M140" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="N140" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O140" s="49">
+        <v>14</v>
+      </c>
       <c r="P140" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q140" s="49">
-        <v>0</v>
-      </c>
-      <c r="R140" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S140" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="141" spans="1:60" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R140" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="141" spans="1:60" s="57" customFormat="1">
       <c r="A141" s="44">
         <v>43194</v>
       </c>
@@ -14275,43 +14347,42 @@
         <v>212</v>
       </c>
       <c r="H141" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I141" s="54" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J141" s="54"/>
-      <c r="K141" s="60"/>
-      <c r="L141" s="49" t="str">
+      <c r="K141" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M141" s="55" t="str">
-        <f>VLOOKUP(N141,[1]ch!A:B,2,FALSE)</f>
+      <c r="L141" s="55" t="str">
+        <f>VLOOKUP(M141,[1]ch!A:B,2,FALSE)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="N141" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="O141" s="49" t="str">
+      <c r="M141" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="N141" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O141" s="49">
+        <v>14</v>
+      </c>
       <c r="P141" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q141" s="49">
-        <v>0</v>
-      </c>
-      <c r="R141" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S141" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="142" spans="1:60" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R141" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="142" spans="1:60" s="57" customFormat="1">
       <c r="A142" s="44">
         <v>43194</v>
       </c>
@@ -14334,43 +14405,42 @@
         <v>212</v>
       </c>
       <c r="H142" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I142" s="54" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J142" s="54"/>
-      <c r="K142" s="60"/>
-      <c r="L142" s="49" t="str">
+      <c r="K142" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M142" s="55" t="str">
-        <f>VLOOKUP(N142,[1]ch!A:B,2,FALSE)</f>
+      <c r="L142" s="55" t="str">
+        <f>VLOOKUP(M142,[1]ch!A:B,2,FALSE)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="N142" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="O142" s="49" t="str">
+      <c r="M142" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="N142" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O142" s="49">
+        <v>14</v>
+      </c>
       <c r="P142" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q142" s="49">
-        <v>0</v>
-      </c>
-      <c r="R142" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S142" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="143" spans="1:60" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R142" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="143" spans="1:60" s="57" customFormat="1">
       <c r="A143" s="44">
         <v>43194</v>
       </c>
@@ -14393,43 +14463,42 @@
         <v>212</v>
       </c>
       <c r="H143" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I143" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J143" s="54"/>
-      <c r="K143" s="60"/>
-      <c r="L143" s="49" t="str">
+      <c r="K143" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M143" s="55" t="str">
-        <f>VLOOKUP(N143,[1]ch!A:B,2,FALSE)</f>
+      <c r="L143" s="55" t="str">
+        <f>VLOOKUP(M143,[1]ch!A:B,2,FALSE)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="N143" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="O143" s="49" t="str">
+      <c r="M143" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="N143" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O143" s="49">
+        <v>14</v>
+      </c>
       <c r="P143" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q143" s="49">
-        <v>0</v>
-      </c>
-      <c r="R143" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S143" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="144" spans="1:60" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R143" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:60" s="57" customFormat="1">
       <c r="A144" s="44">
         <v>43194</v>
       </c>
@@ -14452,43 +14521,42 @@
         <v>212</v>
       </c>
       <c r="H144" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I144" s="54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J144" s="54"/>
-      <c r="K144" s="60"/>
-      <c r="L144" s="49" t="str">
+      <c r="K144" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M144" s="55" t="str">
-        <f>VLOOKUP(N144,[1]ch!A:B,2,FALSE)</f>
+      <c r="L144" s="55" t="str">
+        <f>VLOOKUP(M144,[1]ch!A:B,2,FALSE)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="N144" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="O144" s="49" t="str">
+      <c r="M144" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="N144" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O144" s="49">
+        <v>14</v>
+      </c>
       <c r="P144" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q144" s="49">
-        <v>0</v>
-      </c>
-      <c r="R144" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S144" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R144" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:60" s="57" customFormat="1">
       <c r="A145" s="44">
         <v>43196</v>
       </c>
@@ -14511,43 +14579,42 @@
         <v>212</v>
       </c>
       <c r="H145" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I145" s="54" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J145" s="54"/>
-      <c r="K145" s="60"/>
-      <c r="L145" s="49" t="str">
+      <c r="K145" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M145" s="55" t="str">
-        <f>VLOOKUP(N145,[1]ch!A:B,2,FALSE)</f>
+      <c r="L145" s="55" t="str">
+        <f>VLOOKUP(M145,[1]ch!A:B,2,FALSE)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="N145" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="O145" s="49" t="str">
+      <c r="M145" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="N145" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O145" s="49">
+        <v>14</v>
+      </c>
       <c r="P145" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q145" s="49">
-        <v>0</v>
-      </c>
-      <c r="R145" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S145" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R145" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="146" spans="1:60" s="57" customFormat="1">
       <c r="A146" s="44">
         <v>43196</v>
       </c>
@@ -14570,43 +14637,42 @@
         <v>212</v>
       </c>
       <c r="H146" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I146" s="54" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J146" s="54"/>
-      <c r="K146" s="60"/>
-      <c r="L146" s="49" t="str">
+      <c r="K146" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M146" s="55" t="str">
-        <f>VLOOKUP(N146,[1]ch!A:B,2,FALSE)</f>
+      <c r="L146" s="55" t="str">
+        <f>VLOOKUP(M146,[1]ch!A:B,2,FALSE)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="N146" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="O146" s="49" t="str">
+      <c r="M146" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="N146" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O146" s="49">
+        <v>14</v>
+      </c>
       <c r="P146" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q146" s="49">
-        <v>0</v>
-      </c>
-      <c r="R146" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S146" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R146" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:60" s="57" customFormat="1">
       <c r="A147" s="44">
         <v>43196</v>
       </c>
@@ -14629,43 +14695,42 @@
         <v>212</v>
       </c>
       <c r="H147" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I147" s="54" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J147" s="54"/>
-      <c r="K147" s="60"/>
-      <c r="L147" s="49" t="str">
+      <c r="K147" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M147" s="55" t="str">
-        <f>VLOOKUP(N147,[1]ch!A:B,2,FALSE)</f>
+      <c r="L147" s="55" t="str">
+        <f>VLOOKUP(M147,[1]ch!A:B,2,FALSE)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="N147" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="O147" s="49" t="str">
+      <c r="M147" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="N147" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O147" s="49">
+        <v>14</v>
+      </c>
       <c r="P147" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q147" s="49">
-        <v>0</v>
-      </c>
-      <c r="R147" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S147" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R147" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="148" spans="1:60" s="57" customFormat="1">
       <c r="A148" s="44">
         <v>43196</v>
       </c>
@@ -14688,43 +14753,42 @@
         <v>212</v>
       </c>
       <c r="H148" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I148" s="54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J148" s="54"/>
-      <c r="K148" s="60"/>
-      <c r="L148" s="49" t="str">
+      <c r="K148" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M148" s="55" t="str">
-        <f>VLOOKUP(N148,[1]ch!A:B,2,FALSE)</f>
+      <c r="L148" s="55" t="str">
+        <f>VLOOKUP(M148,[1]ch!A:B,2,FALSE)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="N148" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="O148" s="49" t="str">
+      <c r="M148" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="N148" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O148" s="49">
+        <v>14</v>
+      </c>
       <c r="P148" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q148" s="49">
-        <v>0</v>
-      </c>
-      <c r="R148" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S148" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R148" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="149" spans="1:60" s="57" customFormat="1">
       <c r="A149" s="44">
         <v>43196</v>
       </c>
@@ -14747,43 +14811,42 @@
         <v>212</v>
       </c>
       <c r="H149" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I149" s="54" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J149" s="54"/>
-      <c r="K149" s="60"/>
-      <c r="L149" s="49" t="str">
+      <c r="K149" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M149" s="55" t="str">
-        <f>VLOOKUP(N149,[1]ch!A:B,2,FALSE)</f>
+      <c r="L149" s="55" t="str">
+        <f>VLOOKUP(M149,[1]ch!A:B,2,FALSE)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="N149" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="O149" s="49" t="str">
+      <c r="M149" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="N149" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O149" s="49">
+        <v>14</v>
+      </c>
       <c r="P149" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q149" s="49">
-        <v>0</v>
-      </c>
-      <c r="R149" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S149" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R149" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:60" s="57" customFormat="1">
       <c r="A150" s="44">
         <v>43196</v>
       </c>
@@ -14806,43 +14869,42 @@
         <v>212</v>
       </c>
       <c r="H150" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I150" s="54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J150" s="54"/>
-      <c r="K150" s="60"/>
-      <c r="L150" s="49" t="str">
+      <c r="K150" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M150" s="55" t="str">
-        <f>VLOOKUP(N150,[1]ch!A:B,2,FALSE)</f>
+      <c r="L150" s="55" t="str">
+        <f>VLOOKUP(M150,[1]ch!A:B,2,FALSE)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="N150" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="O150" s="49" t="str">
+      <c r="M150" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="N150" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O150" s="49">
+        <v>14</v>
+      </c>
       <c r="P150" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q150" s="49">
-        <v>0</v>
-      </c>
-      <c r="R150" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S150" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R150" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:60" s="57" customFormat="1">
       <c r="A151" s="44">
         <v>43196</v>
       </c>
@@ -14865,43 +14927,42 @@
         <v>212</v>
       </c>
       <c r="H151" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I151" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J151" s="54"/>
-      <c r="K151" s="60"/>
-      <c r="L151" s="49" t="str">
+      <c r="K151" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M151" s="55" t="str">
-        <f>VLOOKUP(N151,[1]ch!A:B,2,FALSE)</f>
+      <c r="L151" s="55" t="str">
+        <f>VLOOKUP(M151,[1]ch!A:B,2,FALSE)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="N151" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="O151" s="49" t="str">
+      <c r="M151" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="N151" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O151" s="49">
+        <v>14</v>
+      </c>
       <c r="P151" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q151" s="49">
-        <v>0</v>
-      </c>
-      <c r="R151" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S151" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R151" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="152" spans="1:60" s="57" customFormat="1">
       <c r="A152" s="44">
         <v>43196</v>
       </c>
@@ -14924,43 +14985,42 @@
         <v>212</v>
       </c>
       <c r="H152" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I152" s="54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J152" s="54"/>
-      <c r="K152" s="60"/>
-      <c r="L152" s="49" t="str">
+      <c r="K152" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M152" s="55" t="str">
-        <f>VLOOKUP(N152,[1]ch!A:B,2,FALSE)</f>
+      <c r="L152" s="55" t="str">
+        <f>VLOOKUP(M152,[1]ch!A:B,2,FALSE)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="N152" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="O152" s="49" t="str">
+      <c r="M152" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="N152" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O152" s="49">
+        <v>14</v>
+      </c>
       <c r="P152" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q152" s="49">
-        <v>0</v>
-      </c>
-      <c r="R152" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S152" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R152" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:60" s="57" customFormat="1">
       <c r="A153" s="44">
         <v>43196</v>
       </c>
@@ -14983,43 +15043,42 @@
         <v>212</v>
       </c>
       <c r="H153" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I153" s="54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J153" s="54"/>
-      <c r="K153" s="60"/>
-      <c r="L153" s="49" t="str">
+      <c r="K153" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M153" s="55" t="str">
-        <f>VLOOKUP(N153,[1]ch!A:B,2,FALSE)</f>
+      <c r="L153" s="55" t="str">
+        <f>VLOOKUP(M153,[1]ch!A:B,2,FALSE)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="N153" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="O153" s="49" t="str">
+      <c r="M153" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="N153" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O153" s="49">
+        <v>14</v>
+      </c>
       <c r="P153" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q153" s="49">
-        <v>0</v>
-      </c>
-      <c r="R153" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S153" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R153" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:60" s="57" customFormat="1">
       <c r="A154" s="44">
         <v>43196</v>
       </c>
@@ -15042,43 +15101,42 @@
         <v>212</v>
       </c>
       <c r="H154" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I154" s="54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J154" s="54"/>
-      <c r="K154" s="60"/>
-      <c r="L154" s="49" t="str">
+      <c r="K154" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M154" s="55" t="str">
-        <f>VLOOKUP(N154,[1]ch!A:B,2,FALSE)</f>
+      <c r="L154" s="55" t="str">
+        <f>VLOOKUP(M154,[1]ch!A:B,2,FALSE)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="N154" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="O154" s="49" t="str">
+      <c r="M154" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="N154" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O154" s="49">
+        <v>14</v>
+      </c>
       <c r="P154" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q154" s="49">
-        <v>0</v>
-      </c>
-      <c r="R154" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S154" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R154" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="1:60" s="57" customFormat="1">
       <c r="A155" s="44">
         <v>43196</v>
       </c>
@@ -15101,43 +15159,1777 @@
         <v>212</v>
       </c>
       <c r="H155" s="49" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I155" s="54" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J155" s="54"/>
-      <c r="K155" s="60"/>
-      <c r="L155" s="49" t="str">
+      <c r="K155" s="49" t="str">
         <f t="shared" si="1"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M155" s="55" t="str">
-        <f>VLOOKUP(N155,[1]ch!A:B,2,FALSE)</f>
+      <c r="L155" s="55" t="str">
+        <f>VLOOKUP(M155,[1]ch!A:B,2,FALSE)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="N155" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="O155" s="49" t="str">
+      <c r="M155" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="N155" s="49" t="str">
         <f t="shared" si="2"/>
         <v>9.6米</v>
       </c>
+      <c r="O155" s="49">
+        <v>14</v>
+      </c>
       <c r="P155" s="49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q155" s="49">
-        <v>0</v>
-      </c>
-      <c r="R155" s="49">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S155" s="49" t="s">
-        <v>215</v>
+      <c r="R155" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="156" spans="1:60" ht="15">
+      <c r="A156" s="66">
+        <v>43197</v>
+      </c>
+      <c r="B156" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C156" s="62">
+        <v>10</v>
+      </c>
+      <c r="D156" s="62">
+        <v>20</v>
+      </c>
+      <c r="E156" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F156" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G156" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H156" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I156" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="J156" s="65"/>
+      <c r="K156" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L156" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M156" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N156" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O156" s="64">
+        <v>14</v>
+      </c>
+      <c r="P156" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="64">
+        <v>14</v>
+      </c>
+      <c r="R156" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="S156" s="67"/>
+      <c r="T156" s="67"/>
+      <c r="U156" s="67"/>
+      <c r="V156" s="67"/>
+      <c r="W156" s="67"/>
+      <c r="X156" s="67"/>
+      <c r="Y156" s="67"/>
+      <c r="Z156" s="67"/>
+      <c r="AA156" s="67"/>
+      <c r="AB156" s="67"/>
+      <c r="AC156" s="67"/>
+      <c r="AD156" s="67"/>
+      <c r="AE156" s="67"/>
+      <c r="AF156" s="67"/>
+      <c r="AG156" s="67"/>
+      <c r="AH156" s="67"/>
+      <c r="AI156" s="67"/>
+      <c r="AJ156" s="67"/>
+      <c r="AK156" s="67"/>
+      <c r="AL156" s="67"/>
+      <c r="AM156" s="67"/>
+      <c r="AN156" s="67"/>
+      <c r="AO156" s="67"/>
+      <c r="AP156" s="67"/>
+      <c r="AQ156" s="67"/>
+      <c r="AR156" s="67"/>
+      <c r="AS156" s="67"/>
+      <c r="AT156" s="67"/>
+      <c r="AU156" s="67"/>
+      <c r="AV156" s="67"/>
+      <c r="AW156" s="67"/>
+      <c r="AX156" s="67"/>
+      <c r="AY156" s="67"/>
+      <c r="AZ156" s="67"/>
+      <c r="BA156" s="67"/>
+      <c r="BB156" s="67"/>
+      <c r="BC156" s="67"/>
+      <c r="BD156" s="67"/>
+      <c r="BE156" s="67"/>
+      <c r="BF156" s="67"/>
+      <c r="BG156" s="67"/>
+      <c r="BH156" s="67"/>
+    </row>
+    <row r="157" spans="1:60" ht="15">
+      <c r="A157" s="66">
+        <v>43197</v>
+      </c>
+      <c r="B157" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C157" s="62">
+        <v>125</v>
+      </c>
+      <c r="D157" s="62">
+        <v>135</v>
+      </c>
+      <c r="E157" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F157" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G157" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H157" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I157" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="J157" s="65"/>
+      <c r="K157" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L157" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M157" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N157" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O157" s="64">
+        <v>14</v>
+      </c>
+      <c r="P157" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q157" s="64">
+        <v>14</v>
+      </c>
+      <c r="R157" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="S157" s="67"/>
+      <c r="T157" s="67"/>
+      <c r="U157" s="67"/>
+      <c r="V157" s="67"/>
+      <c r="W157" s="67"/>
+      <c r="X157" s="67"/>
+      <c r="Y157" s="67"/>
+      <c r="Z157" s="67"/>
+      <c r="AA157" s="67"/>
+      <c r="AB157" s="67"/>
+      <c r="AC157" s="67"/>
+      <c r="AD157" s="67"/>
+      <c r="AE157" s="67"/>
+      <c r="AF157" s="67"/>
+      <c r="AG157" s="67"/>
+      <c r="AH157" s="67"/>
+      <c r="AI157" s="67"/>
+      <c r="AJ157" s="67"/>
+      <c r="AK157" s="67"/>
+      <c r="AL157" s="67"/>
+      <c r="AM157" s="67"/>
+      <c r="AN157" s="67"/>
+      <c r="AO157" s="67"/>
+      <c r="AP157" s="67"/>
+      <c r="AQ157" s="67"/>
+      <c r="AR157" s="67"/>
+      <c r="AS157" s="67"/>
+      <c r="AT157" s="67"/>
+      <c r="AU157" s="67"/>
+      <c r="AV157" s="67"/>
+      <c r="AW157" s="67"/>
+      <c r="AX157" s="67"/>
+      <c r="AY157" s="67"/>
+      <c r="AZ157" s="67"/>
+      <c r="BA157" s="67"/>
+      <c r="BB157" s="67"/>
+      <c r="BC157" s="67"/>
+      <c r="BD157" s="67"/>
+      <c r="BE157" s="67"/>
+      <c r="BF157" s="67"/>
+      <c r="BG157" s="67"/>
+      <c r="BH157" s="67"/>
+    </row>
+    <row r="158" spans="1:60" ht="15">
+      <c r="A158" s="66">
+        <v>43197</v>
+      </c>
+      <c r="B158" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C158" s="62">
+        <v>305</v>
+      </c>
+      <c r="D158" s="62">
+        <v>315</v>
+      </c>
+      <c r="E158" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F158" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G158" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H158" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I158" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="J158" s="65"/>
+      <c r="K158" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L158" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M158" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N158" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O158" s="64">
+        <v>14</v>
+      </c>
+      <c r="P158" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="64">
+        <v>14</v>
+      </c>
+      <c r="R158" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="S158" s="67"/>
+      <c r="T158" s="67"/>
+      <c r="U158" s="67"/>
+      <c r="V158" s="67"/>
+      <c r="W158" s="67"/>
+      <c r="X158" s="67"/>
+      <c r="Y158" s="67"/>
+      <c r="Z158" s="67"/>
+      <c r="AA158" s="67"/>
+      <c r="AB158" s="67"/>
+      <c r="AC158" s="67"/>
+      <c r="AD158" s="67"/>
+      <c r="AE158" s="67"/>
+      <c r="AF158" s="67"/>
+      <c r="AG158" s="67"/>
+      <c r="AH158" s="67"/>
+      <c r="AI158" s="67"/>
+      <c r="AJ158" s="67"/>
+      <c r="AK158" s="67"/>
+      <c r="AL158" s="67"/>
+      <c r="AM158" s="67"/>
+      <c r="AN158" s="67"/>
+      <c r="AO158" s="67"/>
+      <c r="AP158" s="67"/>
+      <c r="AQ158" s="67"/>
+      <c r="AR158" s="67"/>
+      <c r="AS158" s="67"/>
+      <c r="AT158" s="67"/>
+      <c r="AU158" s="67"/>
+      <c r="AV158" s="67"/>
+      <c r="AW158" s="67"/>
+      <c r="AX158" s="67"/>
+      <c r="AY158" s="67"/>
+      <c r="AZ158" s="67"/>
+      <c r="BA158" s="67"/>
+      <c r="BB158" s="67"/>
+      <c r="BC158" s="67"/>
+      <c r="BD158" s="67"/>
+      <c r="BE158" s="67"/>
+      <c r="BF158" s="67"/>
+      <c r="BG158" s="67"/>
+      <c r="BH158" s="67"/>
+    </row>
+    <row r="159" spans="1:60" ht="15">
+      <c r="A159" s="66">
+        <v>43197</v>
+      </c>
+      <c r="B159" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C159" s="62">
+        <v>350</v>
+      </c>
+      <c r="D159" s="62">
+        <v>400</v>
+      </c>
+      <c r="E159" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F159" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G159" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H159" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I159" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="J159" s="65"/>
+      <c r="K159" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L159" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M159" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N159" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O159" s="64">
+        <v>12</v>
+      </c>
+      <c r="P159" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="64">
+        <v>12</v>
+      </c>
+      <c r="R159" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="S159" s="67"/>
+      <c r="T159" s="67"/>
+      <c r="U159" s="67"/>
+      <c r="V159" s="67"/>
+      <c r="W159" s="67"/>
+      <c r="X159" s="67"/>
+      <c r="Y159" s="67"/>
+      <c r="Z159" s="67"/>
+      <c r="AA159" s="67"/>
+      <c r="AB159" s="67"/>
+      <c r="AC159" s="67"/>
+      <c r="AD159" s="67"/>
+      <c r="AE159" s="67"/>
+      <c r="AF159" s="67"/>
+      <c r="AG159" s="67"/>
+      <c r="AH159" s="67"/>
+      <c r="AI159" s="67"/>
+      <c r="AJ159" s="67"/>
+      <c r="AK159" s="67"/>
+      <c r="AL159" s="67"/>
+      <c r="AM159" s="67"/>
+      <c r="AN159" s="67"/>
+      <c r="AO159" s="67"/>
+      <c r="AP159" s="67"/>
+      <c r="AQ159" s="67"/>
+      <c r="AR159" s="67"/>
+      <c r="AS159" s="67"/>
+      <c r="AT159" s="67"/>
+      <c r="AU159" s="67"/>
+      <c r="AV159" s="67"/>
+      <c r="AW159" s="67"/>
+      <c r="AX159" s="67"/>
+      <c r="AY159" s="67"/>
+      <c r="AZ159" s="67"/>
+      <c r="BA159" s="67"/>
+      <c r="BB159" s="67"/>
+      <c r="BC159" s="67"/>
+      <c r="BD159" s="67"/>
+      <c r="BE159" s="67"/>
+      <c r="BF159" s="67"/>
+      <c r="BG159" s="67"/>
+      <c r="BH159" s="67"/>
+    </row>
+    <row r="160" spans="1:60" ht="15">
+      <c r="A160" s="66">
+        <v>43197</v>
+      </c>
+      <c r="B160" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C160" s="62">
+        <v>505</v>
+      </c>
+      <c r="D160" s="62">
+        <v>515</v>
+      </c>
+      <c r="E160" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F160" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G160" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H160" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I160" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="J160" s="65"/>
+      <c r="K160" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L160" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M160" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N160" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O160" s="64">
+        <v>14</v>
+      </c>
+      <c r="P160" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="64">
+        <v>14</v>
+      </c>
+      <c r="R160" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="S160" s="67"/>
+      <c r="T160" s="67"/>
+      <c r="U160" s="67"/>
+      <c r="V160" s="67"/>
+      <c r="W160" s="67"/>
+      <c r="X160" s="67"/>
+      <c r="Y160" s="67"/>
+      <c r="Z160" s="67"/>
+      <c r="AA160" s="67"/>
+      <c r="AB160" s="67"/>
+      <c r="AC160" s="67"/>
+      <c r="AD160" s="67"/>
+      <c r="AE160" s="67"/>
+      <c r="AF160" s="67"/>
+      <c r="AG160" s="67"/>
+      <c r="AH160" s="67"/>
+      <c r="AI160" s="67"/>
+      <c r="AJ160" s="67"/>
+      <c r="AK160" s="67"/>
+      <c r="AL160" s="67"/>
+      <c r="AM160" s="67"/>
+      <c r="AN160" s="67"/>
+      <c r="AO160" s="67"/>
+      <c r="AP160" s="67"/>
+      <c r="AQ160" s="67"/>
+      <c r="AR160" s="67"/>
+      <c r="AS160" s="67"/>
+      <c r="AT160" s="67"/>
+      <c r="AU160" s="67"/>
+      <c r="AV160" s="67"/>
+      <c r="AW160" s="67"/>
+      <c r="AX160" s="67"/>
+      <c r="AY160" s="67"/>
+      <c r="AZ160" s="67"/>
+      <c r="BA160" s="67"/>
+      <c r="BB160" s="67"/>
+      <c r="BC160" s="67"/>
+      <c r="BD160" s="67"/>
+      <c r="BE160" s="67"/>
+      <c r="BF160" s="67"/>
+      <c r="BG160" s="67"/>
+      <c r="BH160" s="67"/>
+    </row>
+    <row r="161" spans="1:60" ht="15">
+      <c r="A161" s="66">
+        <v>43197</v>
+      </c>
+      <c r="B161" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C161" s="62">
+        <v>555</v>
+      </c>
+      <c r="D161" s="62">
+        <v>603</v>
+      </c>
+      <c r="E161" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F161" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G161" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H161" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I161" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="J161" s="65"/>
+      <c r="K161" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L161" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M161" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N161" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O161" s="64">
+        <v>14</v>
+      </c>
+      <c r="P161" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="64">
+        <v>14</v>
+      </c>
+      <c r="R161" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="S161" s="67"/>
+      <c r="T161" s="67"/>
+      <c r="U161" s="67"/>
+      <c r="V161" s="67"/>
+      <c r="W161" s="67"/>
+      <c r="X161" s="67"/>
+      <c r="Y161" s="67"/>
+      <c r="Z161" s="67"/>
+      <c r="AA161" s="67"/>
+      <c r="AB161" s="67"/>
+      <c r="AC161" s="67"/>
+      <c r="AD161" s="67"/>
+      <c r="AE161" s="67"/>
+      <c r="AF161" s="67"/>
+      <c r="AG161" s="67"/>
+      <c r="AH161" s="67"/>
+      <c r="AI161" s="67"/>
+      <c r="AJ161" s="67"/>
+      <c r="AK161" s="67"/>
+      <c r="AL161" s="67"/>
+      <c r="AM161" s="67"/>
+      <c r="AN161" s="67"/>
+      <c r="AO161" s="67"/>
+      <c r="AP161" s="67"/>
+      <c r="AQ161" s="67"/>
+      <c r="AR161" s="67"/>
+      <c r="AS161" s="67"/>
+      <c r="AT161" s="67"/>
+      <c r="AU161" s="67"/>
+      <c r="AV161" s="67"/>
+      <c r="AW161" s="67"/>
+      <c r="AX161" s="67"/>
+      <c r="AY161" s="67"/>
+      <c r="AZ161" s="67"/>
+      <c r="BA161" s="67"/>
+      <c r="BB161" s="67"/>
+      <c r="BC161" s="67"/>
+      <c r="BD161" s="67"/>
+      <c r="BE161" s="67"/>
+      <c r="BF161" s="67"/>
+      <c r="BG161" s="67"/>
+      <c r="BH161" s="67"/>
+    </row>
+    <row r="162" spans="1:60" ht="15">
+      <c r="A162" s="66">
+        <v>43197</v>
+      </c>
+      <c r="B162" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C162" s="62">
+        <v>638</v>
+      </c>
+      <c r="D162" s="62">
+        <v>648</v>
+      </c>
+      <c r="E162" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F162" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G162" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H162" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I162" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="J162" s="65"/>
+      <c r="K162" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L162" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M162" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N162" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O162" s="64">
+        <v>14</v>
+      </c>
+      <c r="P162" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="64">
+        <v>14</v>
+      </c>
+      <c r="R162" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="S162" s="67"/>
+      <c r="T162" s="67"/>
+      <c r="U162" s="67"/>
+      <c r="V162" s="67"/>
+      <c r="W162" s="67"/>
+      <c r="X162" s="67"/>
+      <c r="Y162" s="67"/>
+      <c r="Z162" s="67"/>
+      <c r="AA162" s="67"/>
+      <c r="AB162" s="67"/>
+      <c r="AC162" s="67"/>
+      <c r="AD162" s="67"/>
+      <c r="AE162" s="67"/>
+      <c r="AF162" s="67"/>
+      <c r="AG162" s="67"/>
+      <c r="AH162" s="67"/>
+      <c r="AI162" s="67"/>
+      <c r="AJ162" s="67"/>
+      <c r="AK162" s="67"/>
+      <c r="AL162" s="67"/>
+      <c r="AM162" s="67"/>
+      <c r="AN162" s="67"/>
+      <c r="AO162" s="67"/>
+      <c r="AP162" s="67"/>
+      <c r="AQ162" s="67"/>
+      <c r="AR162" s="67"/>
+      <c r="AS162" s="67"/>
+      <c r="AT162" s="67"/>
+      <c r="AU162" s="67"/>
+      <c r="AV162" s="67"/>
+      <c r="AW162" s="67"/>
+      <c r="AX162" s="67"/>
+      <c r="AY162" s="67"/>
+      <c r="AZ162" s="67"/>
+      <c r="BA162" s="67"/>
+      <c r="BB162" s="67"/>
+      <c r="BC162" s="67"/>
+      <c r="BD162" s="67"/>
+      <c r="BE162" s="67"/>
+      <c r="BF162" s="67"/>
+      <c r="BG162" s="67"/>
+      <c r="BH162" s="67"/>
+    </row>
+    <row r="163" spans="1:60" ht="15">
+      <c r="A163" s="66">
+        <v>43197</v>
+      </c>
+      <c r="B163" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C163" s="62">
+        <v>700</v>
+      </c>
+      <c r="D163" s="62">
+        <v>710</v>
+      </c>
+      <c r="E163" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F163" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G163" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H163" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I163" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="J163" s="65"/>
+      <c r="K163" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L163" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M163" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N163" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O163" s="64">
+        <v>3</v>
+      </c>
+      <c r="P163" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="64">
+        <v>3</v>
+      </c>
+      <c r="R163" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="S163" s="67"/>
+      <c r="T163" s="67"/>
+      <c r="U163" s="67"/>
+      <c r="V163" s="67"/>
+      <c r="W163" s="67"/>
+      <c r="X163" s="67"/>
+      <c r="Y163" s="67"/>
+      <c r="Z163" s="67"/>
+      <c r="AA163" s="67"/>
+      <c r="AB163" s="67"/>
+      <c r="AC163" s="67"/>
+      <c r="AD163" s="67"/>
+      <c r="AE163" s="67"/>
+      <c r="AF163" s="67"/>
+      <c r="AG163" s="67"/>
+      <c r="AH163" s="67"/>
+      <c r="AI163" s="67"/>
+      <c r="AJ163" s="67"/>
+      <c r="AK163" s="67"/>
+      <c r="AL163" s="67"/>
+      <c r="AM163" s="67"/>
+      <c r="AN163" s="67"/>
+      <c r="AO163" s="67"/>
+      <c r="AP163" s="67"/>
+      <c r="AQ163" s="67"/>
+      <c r="AR163" s="67"/>
+      <c r="AS163" s="67"/>
+      <c r="AT163" s="67"/>
+      <c r="AU163" s="67"/>
+      <c r="AV163" s="67"/>
+      <c r="AW163" s="67"/>
+      <c r="AX163" s="67"/>
+      <c r="AY163" s="67"/>
+      <c r="AZ163" s="67"/>
+      <c r="BA163" s="67"/>
+      <c r="BB163" s="67"/>
+      <c r="BC163" s="67"/>
+      <c r="BD163" s="67"/>
+      <c r="BE163" s="67"/>
+      <c r="BF163" s="67"/>
+      <c r="BG163" s="67"/>
+      <c r="BH163" s="67"/>
+    </row>
+    <row r="164" spans="1:60" ht="15">
+      <c r="A164" s="66">
+        <v>43198</v>
+      </c>
+      <c r="B164" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C164" s="62">
+        <v>553</v>
+      </c>
+      <c r="D164" s="62">
+        <v>603</v>
+      </c>
+      <c r="E164" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F164" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G164" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H164" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I164" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="J164" s="65"/>
+      <c r="K164" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L164" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M164" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N164" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O164" s="64">
+        <v>14</v>
+      </c>
+      <c r="P164" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="64">
+        <v>14</v>
+      </c>
+      <c r="R164" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="S164" s="67"/>
+      <c r="T164" s="67"/>
+      <c r="U164" s="67"/>
+      <c r="V164" s="67"/>
+      <c r="W164" s="67"/>
+      <c r="X164" s="67"/>
+      <c r="Y164" s="67"/>
+      <c r="Z164" s="67"/>
+      <c r="AA164" s="67"/>
+      <c r="AB164" s="67"/>
+      <c r="AC164" s="67"/>
+      <c r="AD164" s="67"/>
+      <c r="AE164" s="67"/>
+      <c r="AF164" s="67"/>
+      <c r="AG164" s="67"/>
+      <c r="AH164" s="67"/>
+      <c r="AI164" s="67"/>
+      <c r="AJ164" s="67"/>
+      <c r="AK164" s="67"/>
+      <c r="AL164" s="67"/>
+      <c r="AM164" s="67"/>
+      <c r="AN164" s="67"/>
+      <c r="AO164" s="67"/>
+      <c r="AP164" s="67"/>
+      <c r="AQ164" s="67"/>
+      <c r="AR164" s="67"/>
+      <c r="AS164" s="67"/>
+      <c r="AT164" s="67"/>
+      <c r="AU164" s="67"/>
+      <c r="AV164" s="67"/>
+      <c r="AW164" s="67"/>
+      <c r="AX164" s="67"/>
+      <c r="AY164" s="67"/>
+      <c r="AZ164" s="67"/>
+      <c r="BA164" s="67"/>
+      <c r="BB164" s="67"/>
+      <c r="BC164" s="67"/>
+      <c r="BD164" s="67"/>
+      <c r="BE164" s="67"/>
+      <c r="BF164" s="67"/>
+      <c r="BG164" s="67"/>
+      <c r="BH164" s="67"/>
+    </row>
+    <row r="165" spans="1:60" ht="15">
+      <c r="A165" s="66">
+        <v>43198</v>
+      </c>
+      <c r="B165" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C165" s="62">
+        <v>519</v>
+      </c>
+      <c r="D165" s="62">
+        <v>529</v>
+      </c>
+      <c r="E165" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F165" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G165" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H165" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I165" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="J165" s="65"/>
+      <c r="K165" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L165" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M165" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N165" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O165" s="64">
+        <v>14</v>
+      </c>
+      <c r="P165" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="64">
+        <v>14</v>
+      </c>
+      <c r="R165" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="S165" s="67"/>
+      <c r="T165" s="67"/>
+      <c r="U165" s="67"/>
+      <c r="V165" s="67"/>
+      <c r="W165" s="67"/>
+      <c r="X165" s="67"/>
+      <c r="Y165" s="67"/>
+      <c r="Z165" s="67"/>
+      <c r="AA165" s="67"/>
+      <c r="AB165" s="67"/>
+      <c r="AC165" s="67"/>
+      <c r="AD165" s="67"/>
+      <c r="AE165" s="67"/>
+      <c r="AF165" s="67"/>
+      <c r="AG165" s="67"/>
+      <c r="AH165" s="67"/>
+      <c r="AI165" s="67"/>
+      <c r="AJ165" s="67"/>
+      <c r="AK165" s="67"/>
+      <c r="AL165" s="67"/>
+      <c r="AM165" s="67"/>
+      <c r="AN165" s="67"/>
+      <c r="AO165" s="67"/>
+      <c r="AP165" s="67"/>
+      <c r="AQ165" s="67"/>
+      <c r="AR165" s="67"/>
+      <c r="AS165" s="67"/>
+      <c r="AT165" s="67"/>
+      <c r="AU165" s="67"/>
+      <c r="AV165" s="67"/>
+      <c r="AW165" s="67"/>
+      <c r="AX165" s="67"/>
+      <c r="AY165" s="67"/>
+      <c r="AZ165" s="67"/>
+      <c r="BA165" s="67"/>
+      <c r="BB165" s="67"/>
+      <c r="BC165" s="67"/>
+      <c r="BD165" s="67"/>
+      <c r="BE165" s="67"/>
+      <c r="BF165" s="67"/>
+      <c r="BG165" s="67"/>
+      <c r="BH165" s="67"/>
+    </row>
+    <row r="166" spans="1:60" ht="15">
+      <c r="A166" s="66">
+        <v>43198</v>
+      </c>
+      <c r="B166" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C166" s="62">
+        <v>440</v>
+      </c>
+      <c r="D166" s="62">
+        <v>450</v>
+      </c>
+      <c r="E166" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F166" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G166" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H166" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I166" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="J166" s="65"/>
+      <c r="K166" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L166" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M166" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N166" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O166" s="64">
+        <v>14</v>
+      </c>
+      <c r="P166" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q166" s="64">
+        <v>14</v>
+      </c>
+      <c r="R166" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="S166" s="67"/>
+      <c r="T166" s="67"/>
+      <c r="U166" s="67"/>
+      <c r="V166" s="67"/>
+      <c r="W166" s="67"/>
+      <c r="X166" s="67"/>
+      <c r="Y166" s="67"/>
+      <c r="Z166" s="67"/>
+      <c r="AA166" s="67"/>
+      <c r="AB166" s="67"/>
+      <c r="AC166" s="67"/>
+      <c r="AD166" s="67"/>
+      <c r="AE166" s="67"/>
+      <c r="AF166" s="67"/>
+      <c r="AG166" s="67"/>
+      <c r="AH166" s="67"/>
+      <c r="AI166" s="67"/>
+      <c r="AJ166" s="67"/>
+      <c r="AK166" s="67"/>
+      <c r="AL166" s="67"/>
+      <c r="AM166" s="67"/>
+      <c r="AN166" s="67"/>
+      <c r="AO166" s="67"/>
+      <c r="AP166" s="67"/>
+      <c r="AQ166" s="67"/>
+      <c r="AR166" s="67"/>
+      <c r="AS166" s="67"/>
+      <c r="AT166" s="67"/>
+      <c r="AU166" s="67"/>
+      <c r="AV166" s="67"/>
+      <c r="AW166" s="67"/>
+      <c r="AX166" s="67"/>
+      <c r="AY166" s="67"/>
+      <c r="AZ166" s="67"/>
+      <c r="BA166" s="67"/>
+      <c r="BB166" s="67"/>
+      <c r="BC166" s="67"/>
+      <c r="BD166" s="67"/>
+      <c r="BE166" s="67"/>
+      <c r="BF166" s="67"/>
+      <c r="BG166" s="67"/>
+      <c r="BH166" s="67"/>
+    </row>
+    <row r="167" spans="1:60" ht="15">
+      <c r="A167" s="66">
+        <v>43198</v>
+      </c>
+      <c r="B167" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C167" s="62">
+        <v>400</v>
+      </c>
+      <c r="D167" s="62">
+        <v>410</v>
+      </c>
+      <c r="E167" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F167" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G167" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H167" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I167" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="J167" s="65"/>
+      <c r="K167" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L167" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M167" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N167" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O167" s="64">
+        <v>14</v>
+      </c>
+      <c r="P167" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q167" s="64">
+        <v>14</v>
+      </c>
+      <c r="R167" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="S167" s="67"/>
+      <c r="T167" s="67"/>
+      <c r="U167" s="67"/>
+      <c r="V167" s="67"/>
+      <c r="W167" s="67"/>
+      <c r="X167" s="67"/>
+      <c r="Y167" s="67"/>
+      <c r="Z167" s="67"/>
+      <c r="AA167" s="67"/>
+      <c r="AB167" s="67"/>
+      <c r="AC167" s="67"/>
+      <c r="AD167" s="67"/>
+      <c r="AE167" s="67"/>
+      <c r="AF167" s="67"/>
+      <c r="AG167" s="67"/>
+      <c r="AH167" s="67"/>
+      <c r="AI167" s="67"/>
+      <c r="AJ167" s="67"/>
+      <c r="AK167" s="67"/>
+      <c r="AL167" s="67"/>
+      <c r="AM167" s="67"/>
+      <c r="AN167" s="67"/>
+      <c r="AO167" s="67"/>
+      <c r="AP167" s="67"/>
+      <c r="AQ167" s="67"/>
+      <c r="AR167" s="67"/>
+      <c r="AS167" s="67"/>
+      <c r="AT167" s="67"/>
+      <c r="AU167" s="67"/>
+      <c r="AV167" s="67"/>
+      <c r="AW167" s="67"/>
+      <c r="AX167" s="67"/>
+      <c r="AY167" s="67"/>
+      <c r="AZ167" s="67"/>
+      <c r="BA167" s="67"/>
+      <c r="BB167" s="67"/>
+      <c r="BC167" s="67"/>
+      <c r="BD167" s="67"/>
+      <c r="BE167" s="67"/>
+      <c r="BF167" s="67"/>
+      <c r="BG167" s="67"/>
+      <c r="BH167" s="67"/>
+    </row>
+    <row r="168" spans="1:60" ht="15">
+      <c r="A168" s="66">
+        <v>43198</v>
+      </c>
+      <c r="B168" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C168" s="62">
+        <v>248</v>
+      </c>
+      <c r="D168" s="62">
+        <v>258</v>
+      </c>
+      <c r="E168" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F168" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G168" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H168" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I168" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="J168" s="65"/>
+      <c r="K168" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L168" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M168" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N168" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O168" s="64">
+        <v>14</v>
+      </c>
+      <c r="P168" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q168" s="64">
+        <v>14</v>
+      </c>
+      <c r="R168" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="S168" s="67"/>
+      <c r="T168" s="67"/>
+      <c r="U168" s="67"/>
+      <c r="V168" s="67"/>
+      <c r="W168" s="67"/>
+      <c r="X168" s="67"/>
+      <c r="Y168" s="67"/>
+      <c r="Z168" s="67"/>
+      <c r="AA168" s="67"/>
+      <c r="AB168" s="67"/>
+      <c r="AC168" s="67"/>
+      <c r="AD168" s="67"/>
+      <c r="AE168" s="67"/>
+      <c r="AF168" s="67"/>
+      <c r="AG168" s="67"/>
+      <c r="AH168" s="67"/>
+      <c r="AI168" s="67"/>
+      <c r="AJ168" s="67"/>
+      <c r="AK168" s="67"/>
+      <c r="AL168" s="67"/>
+      <c r="AM168" s="67"/>
+      <c r="AN168" s="67"/>
+      <c r="AO168" s="67"/>
+      <c r="AP168" s="67"/>
+      <c r="AQ168" s="67"/>
+      <c r="AR168" s="67"/>
+      <c r="AS168" s="67"/>
+      <c r="AT168" s="67"/>
+      <c r="AU168" s="67"/>
+      <c r="AV168" s="67"/>
+      <c r="AW168" s="67"/>
+      <c r="AX168" s="67"/>
+      <c r="AY168" s="67"/>
+      <c r="AZ168" s="67"/>
+      <c r="BA168" s="67"/>
+      <c r="BB168" s="67"/>
+      <c r="BC168" s="67"/>
+      <c r="BD168" s="67"/>
+      <c r="BE168" s="67"/>
+      <c r="BF168" s="67"/>
+      <c r="BG168" s="67"/>
+      <c r="BH168" s="67"/>
+    </row>
+    <row r="169" spans="1:60" ht="15">
+      <c r="A169" s="66">
+        <v>43198</v>
+      </c>
+      <c r="B169" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C169" s="62">
+        <v>210</v>
+      </c>
+      <c r="D169" s="62">
+        <v>220</v>
+      </c>
+      <c r="E169" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F169" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G169" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H169" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I169" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="J169" s="65"/>
+      <c r="K169" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L169" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M169" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N169" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O169" s="64">
+        <v>14</v>
+      </c>
+      <c r="P169" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="64">
+        <v>14</v>
+      </c>
+      <c r="R169" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="S169" s="67"/>
+      <c r="T169" s="67"/>
+      <c r="U169" s="67"/>
+      <c r="V169" s="67"/>
+      <c r="W169" s="67"/>
+      <c r="X169" s="67"/>
+      <c r="Y169" s="67"/>
+      <c r="Z169" s="67"/>
+      <c r="AA169" s="67"/>
+      <c r="AB169" s="67"/>
+      <c r="AC169" s="67"/>
+      <c r="AD169" s="67"/>
+      <c r="AE169" s="67"/>
+      <c r="AF169" s="67"/>
+      <c r="AG169" s="67"/>
+      <c r="AH169" s="67"/>
+      <c r="AI169" s="67"/>
+      <c r="AJ169" s="67"/>
+      <c r="AK169" s="67"/>
+      <c r="AL169" s="67"/>
+      <c r="AM169" s="67"/>
+      <c r="AN169" s="67"/>
+      <c r="AO169" s="67"/>
+      <c r="AP169" s="67"/>
+      <c r="AQ169" s="67"/>
+      <c r="AR169" s="67"/>
+      <c r="AS169" s="67"/>
+      <c r="AT169" s="67"/>
+      <c r="AU169" s="67"/>
+      <c r="AV169" s="67"/>
+      <c r="AW169" s="67"/>
+      <c r="AX169" s="67"/>
+      <c r="AY169" s="67"/>
+      <c r="AZ169" s="67"/>
+      <c r="BA169" s="67"/>
+      <c r="BB169" s="67"/>
+      <c r="BC169" s="67"/>
+      <c r="BD169" s="67"/>
+      <c r="BE169" s="67"/>
+      <c r="BF169" s="67"/>
+      <c r="BG169" s="67"/>
+      <c r="BH169" s="67"/>
+    </row>
+    <row r="170" spans="1:60" ht="15">
+      <c r="A170" s="66">
+        <v>43198</v>
+      </c>
+      <c r="B170" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C170" s="62">
+        <v>135</v>
+      </c>
+      <c r="D170" s="62">
+        <v>145</v>
+      </c>
+      <c r="E170" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F170" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G170" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H170" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I170" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="J170" s="65"/>
+      <c r="K170" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L170" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M170" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N170" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O170" s="64">
+        <v>14</v>
+      </c>
+      <c r="P170" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q170" s="64">
+        <v>14</v>
+      </c>
+      <c r="R170" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="S170" s="67"/>
+      <c r="T170" s="67"/>
+      <c r="U170" s="67"/>
+      <c r="V170" s="67"/>
+      <c r="W170" s="67"/>
+      <c r="X170" s="67"/>
+      <c r="Y170" s="67"/>
+      <c r="Z170" s="67"/>
+      <c r="AA170" s="67"/>
+      <c r="AB170" s="67"/>
+      <c r="AC170" s="67"/>
+      <c r="AD170" s="67"/>
+      <c r="AE170" s="67"/>
+      <c r="AF170" s="67"/>
+      <c r="AG170" s="67"/>
+      <c r="AH170" s="67"/>
+      <c r="AI170" s="67"/>
+      <c r="AJ170" s="67"/>
+      <c r="AK170" s="67"/>
+      <c r="AL170" s="67"/>
+      <c r="AM170" s="67"/>
+      <c r="AN170" s="67"/>
+      <c r="AO170" s="67"/>
+      <c r="AP170" s="67"/>
+      <c r="AQ170" s="67"/>
+      <c r="AR170" s="67"/>
+      <c r="AS170" s="67"/>
+      <c r="AT170" s="67"/>
+      <c r="AU170" s="67"/>
+      <c r="AV170" s="67"/>
+      <c r="AW170" s="67"/>
+      <c r="AX170" s="67"/>
+      <c r="AY170" s="67"/>
+      <c r="AZ170" s="67"/>
+      <c r="BA170" s="67"/>
+      <c r="BB170" s="67"/>
+      <c r="BC170" s="67"/>
+      <c r="BD170" s="67"/>
+      <c r="BE170" s="67"/>
+      <c r="BF170" s="67"/>
+      <c r="BG170" s="67"/>
+      <c r="BH170" s="67"/>
+    </row>
+    <row r="171" spans="1:60" ht="15">
+      <c r="A171" s="66">
+        <v>43198</v>
+      </c>
+      <c r="B171" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C171" s="62">
+        <v>102</v>
+      </c>
+      <c r="D171" s="62">
+        <v>112</v>
+      </c>
+      <c r="E171" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F171" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G171" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H171" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I171" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="J171" s="65"/>
+      <c r="K171" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L171" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M171" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N171" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O171" s="64">
+        <v>14</v>
+      </c>
+      <c r="P171" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="64">
+        <v>14</v>
+      </c>
+      <c r="R171" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="S171" s="67"/>
+      <c r="T171" s="67"/>
+      <c r="U171" s="67"/>
+      <c r="V171" s="67"/>
+      <c r="W171" s="67"/>
+      <c r="X171" s="67"/>
+      <c r="Y171" s="67"/>
+      <c r="Z171" s="67"/>
+      <c r="AA171" s="67"/>
+      <c r="AB171" s="67"/>
+      <c r="AC171" s="67"/>
+      <c r="AD171" s="67"/>
+      <c r="AE171" s="67"/>
+      <c r="AF171" s="67"/>
+      <c r="AG171" s="67"/>
+      <c r="AH171" s="67"/>
+      <c r="AI171" s="67"/>
+      <c r="AJ171" s="67"/>
+      <c r="AK171" s="67"/>
+      <c r="AL171" s="67"/>
+      <c r="AM171" s="67"/>
+      <c r="AN171" s="67"/>
+      <c r="AO171" s="67"/>
+      <c r="AP171" s="67"/>
+      <c r="AQ171" s="67"/>
+      <c r="AR171" s="67"/>
+      <c r="AS171" s="67"/>
+      <c r="AT171" s="67"/>
+      <c r="AU171" s="67"/>
+      <c r="AV171" s="67"/>
+      <c r="AW171" s="67"/>
+      <c r="AX171" s="67"/>
+      <c r="AY171" s="67"/>
+      <c r="AZ171" s="67"/>
+      <c r="BA171" s="67"/>
+      <c r="BB171" s="67"/>
+      <c r="BC171" s="67"/>
+      <c r="BD171" s="67"/>
+      <c r="BE171" s="67"/>
+      <c r="BF171" s="67"/>
+      <c r="BG171" s="67"/>
+      <c r="BH171" s="67"/>
+    </row>
+    <row r="172" spans="1:60" ht="15">
+      <c r="A172" s="66">
+        <v>43198</v>
+      </c>
+      <c r="B172" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C172" s="62">
+        <v>29</v>
+      </c>
+      <c r="D172" s="62">
+        <v>39</v>
+      </c>
+      <c r="E172" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F172" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G172" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H172" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I172" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="J172" s="65"/>
+      <c r="K172" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L172" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M172" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N172" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O172" s="64">
+        <v>14</v>
+      </c>
+      <c r="P172" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q172" s="64">
+        <v>14</v>
+      </c>
+      <c r="R172" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="S172" s="67"/>
+      <c r="T172" s="67"/>
+      <c r="U172" s="67"/>
+      <c r="V172" s="67"/>
+      <c r="W172" s="67"/>
+      <c r="X172" s="67"/>
+      <c r="Y172" s="67"/>
+      <c r="Z172" s="67"/>
+      <c r="AA172" s="67"/>
+      <c r="AB172" s="67"/>
+      <c r="AC172" s="67"/>
+      <c r="AD172" s="67"/>
+      <c r="AE172" s="67"/>
+      <c r="AF172" s="67"/>
+      <c r="AG172" s="67"/>
+      <c r="AH172" s="67"/>
+      <c r="AI172" s="67"/>
+      <c r="AJ172" s="67"/>
+      <c r="AK172" s="67"/>
+      <c r="AL172" s="67"/>
+      <c r="AM172" s="67"/>
+      <c r="AN172" s="67"/>
+      <c r="AO172" s="67"/>
+      <c r="AP172" s="67"/>
+      <c r="AQ172" s="67"/>
+      <c r="AR172" s="67"/>
+      <c r="AS172" s="67"/>
+      <c r="AT172" s="67"/>
+      <c r="AU172" s="67"/>
+      <c r="AV172" s="67"/>
+      <c r="AW172" s="67"/>
+      <c r="AX172" s="67"/>
+      <c r="AY172" s="67"/>
+      <c r="AZ172" s="67"/>
+      <c r="BA172" s="67"/>
+      <c r="BB172" s="67"/>
+      <c r="BC172" s="67"/>
+      <c r="BD172" s="67"/>
+      <c r="BE172" s="67"/>
+      <c r="BF172" s="67"/>
+      <c r="BG172" s="67"/>
+      <c r="BH172" s="67"/>
+    </row>
+    <row r="173" spans="1:60" ht="15">
+      <c r="A173" s="66">
+        <v>43198</v>
+      </c>
+      <c r="B173" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C173" s="62">
+        <v>2</v>
+      </c>
+      <c r="D173" s="62">
+        <v>12</v>
+      </c>
+      <c r="E173" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F173" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G173" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H173" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I173" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="J173" s="65"/>
+      <c r="K173" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L173" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M173" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N173" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O173" s="64">
+        <v>14</v>
+      </c>
+      <c r="P173" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q173" s="64">
+        <v>14</v>
+      </c>
+      <c r="R173" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="S173" s="67"/>
+      <c r="T173" s="67"/>
+      <c r="U173" s="67"/>
+      <c r="V173" s="67"/>
+      <c r="W173" s="67"/>
+      <c r="X173" s="67"/>
+      <c r="Y173" s="67"/>
+      <c r="Z173" s="67"/>
+      <c r="AA173" s="67"/>
+      <c r="AB173" s="67"/>
+      <c r="AC173" s="67"/>
+      <c r="AD173" s="67"/>
+      <c r="AE173" s="67"/>
+      <c r="AF173" s="67"/>
+      <c r="AG173" s="67"/>
+      <c r="AH173" s="67"/>
+      <c r="AI173" s="67"/>
+      <c r="AJ173" s="67"/>
+      <c r="AK173" s="67"/>
+      <c r="AL173" s="67"/>
+      <c r="AM173" s="67"/>
+      <c r="AN173" s="67"/>
+      <c r="AO173" s="67"/>
+      <c r="AP173" s="67"/>
+      <c r="AQ173" s="67"/>
+      <c r="AR173" s="67"/>
+      <c r="AS173" s="67"/>
+      <c r="AT173" s="67"/>
+      <c r="AU173" s="67"/>
+      <c r="AV173" s="67"/>
+      <c r="AW173" s="67"/>
+      <c r="AX173" s="67"/>
+      <c r="AY173" s="67"/>
+      <c r="AZ173" s="67"/>
+      <c r="BA173" s="67"/>
+      <c r="BB173" s="67"/>
+      <c r="BC173" s="67"/>
+      <c r="BD173" s="67"/>
+      <c r="BE173" s="67"/>
+      <c r="BF173" s="67"/>
+      <c r="BG173" s="67"/>
+      <c r="BH173" s="67"/>
+    </row>
+    <row r="176" spans="1:60">
+      <c r="E176" s="2">
+        <f ca="1">COUNTIF(E:E,"亚洲一号园区")</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R173"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15145,12 +16937,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15158,12 +16950,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
